--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_9_summer.xlsx
@@ -423,7 +423,7 @@
         <v>1989</v>
       </c>
       <c r="C2">
-        <v>4.538060149740408</v>
+        <v>4.311421759901735</v>
       </c>
       <c r="D2">
         <v>1990</v>
@@ -440,13 +440,13 @@
         <v>1990</v>
       </c>
       <c r="C3">
-        <v>6.800911833344525</v>
+        <v>5.550740058157966</v>
       </c>
       <c r="D3">
         <v>1991</v>
       </c>
       <c r="E3">
-        <v>8.556235165581928</v>
+        <v>8.556235165581905</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>1991</v>
       </c>
       <c r="C4">
-        <v>9.766134003411263</v>
+        <v>8.539761715194437</v>
       </c>
       <c r="D4">
         <v>1992</v>
       </c>
       <c r="E4">
-        <v>11.49866806009594</v>
+        <v>11.49866806009596</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>1992</v>
       </c>
       <c r="C5">
-        <v>4.065098651808263</v>
+        <v>3.726709966233899</v>
       </c>
       <c r="D5">
         <v>1993</v>
       </c>
       <c r="E5">
-        <v>5.505010735461169</v>
+        <v>5.505010735461191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>1993</v>
       </c>
       <c r="C6">
-        <v>-4.574773025041534</v>
+        <v>-2.591890155624477</v>
       </c>
       <c r="D6">
         <v>1994</v>
@@ -508,13 +508,13 @@
         <v>1994</v>
       </c>
       <c r="C7">
-        <v>3.361963408542512</v>
+        <v>1.992279837313027</v>
       </c>
       <c r="D7">
         <v>1995</v>
       </c>
       <c r="E7">
-        <v>4.79430739457769</v>
+        <v>4.794307394577713</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,7 +525,7 @@
         <v>1995</v>
       </c>
       <c r="C8">
-        <v>1.621682589716311</v>
+        <v>2.327315368300176</v>
       </c>
       <c r="D8">
         <v>1996</v>
@@ -542,13 +542,13 @@
         <v>1996</v>
       </c>
       <c r="C9">
-        <v>-0.8033535472972142</v>
+        <v>-0.1842552248438545</v>
       </c>
       <c r="D9">
         <v>1997</v>
       </c>
       <c r="E9">
-        <v>-1.47133593941452</v>
+        <v>-1.471335939414509</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1997</v>
       </c>
       <c r="C10">
-        <v>1.913978135611183</v>
+        <v>2.026577416695763</v>
       </c>
       <c r="D10">
         <v>1998</v>
       </c>
       <c r="E10">
-        <v>1.772867810894851</v>
+        <v>1.772867810894829</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +576,7 @@
         <v>1998</v>
       </c>
       <c r="C11">
-        <v>3.242370775602921</v>
+        <v>2.854404831300794</v>
       </c>
       <c r="D11">
         <v>1999</v>
@@ -593,13 +593,13 @@
         <v>1999</v>
       </c>
       <c r="C12">
-        <v>1.226353217902165</v>
+        <v>1.119050958886225</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="E12">
-        <v>1.764569308912689</v>
+        <v>1.764569308912711</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,7 +610,7 @@
         <v>2000</v>
       </c>
       <c r="C13">
-        <v>2.627339038007115</v>
+        <v>2.543418408082077</v>
       </c>
       <c r="D13">
         <v>2001</v>
@@ -627,7 +627,7 @@
         <v>2001</v>
       </c>
       <c r="C14">
-        <v>1.524696920689772</v>
+        <v>1.807361459167756</v>
       </c>
       <c r="D14">
         <v>2002</v>
@@ -644,7 +644,7 @@
         <v>2002</v>
       </c>
       <c r="C15">
-        <v>0.1611176198738296</v>
+        <v>-0.004756022387275571</v>
       </c>
       <c r="D15">
         <v>2003</v>
@@ -661,7 +661,7 @@
         <v>2003</v>
       </c>
       <c r="C16">
-        <v>-0.4006528521986796</v>
+        <v>0.00555640981561023</v>
       </c>
       <c r="D16">
         <v>2004</v>
@@ -678,13 +678,13 @@
         <v>2004</v>
       </c>
       <c r="C17">
-        <v>1.364958142242334</v>
+        <v>0.9376318462105848</v>
       </c>
       <c r="D17">
         <v>2005</v>
       </c>
       <c r="E17">
-        <v>1.767600876148467</v>
+        <v>1.76760087614849</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>2.565101731346275</v>
+        <v>1.619232310145868</v>
       </c>
       <c r="D18">
         <v>2006</v>
       </c>
       <c r="E18">
-        <v>4.242290614102995</v>
+        <v>4.242290614103017</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2006</v>
       </c>
       <c r="C19">
-        <v>1.347891148340952</v>
+        <v>1.395050145291932</v>
       </c>
       <c r="D19">
         <v>2007</v>
       </c>
       <c r="E19">
-        <v>1.469426281897124</v>
+        <v>1.469426281897146</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,7 +729,7 @@
         <v>2007</v>
       </c>
       <c r="C20">
-        <v>2.757326331892296</v>
+        <v>3.227100693237817</v>
       </c>
       <c r="D20">
         <v>2008</v>
@@ -746,7 +746,7 @@
         <v>2008</v>
       </c>
       <c r="C21">
-        <v>4.474000753162399</v>
+        <v>3.348613256881983</v>
       </c>
       <c r="D21">
         <v>2009</v>
@@ -763,7 +763,7 @@
         <v>2009</v>
       </c>
       <c r="C22">
-        <v>-11.03055520881762</v>
+        <v>-7.921833713986381</v>
       </c>
       <c r="D22">
         <v>2010</v>
@@ -780,7 +780,7 @@
         <v>2010</v>
       </c>
       <c r="C23">
-        <v>1.015241516888299</v>
+        <v>0.2827397234951956</v>
       </c>
       <c r="D23">
         <v>2011</v>
@@ -797,7 +797,7 @@
         <v>2011</v>
       </c>
       <c r="C24">
-        <v>5.033263200693927</v>
+        <v>4.451761251541475</v>
       </c>
       <c r="D24">
         <v>2012</v>
@@ -814,13 +814,13 @@
         <v>2012</v>
       </c>
       <c r="C25">
-        <v>1.503844100497154</v>
+        <v>1.493655572990393</v>
       </c>
       <c r="D25">
         <v>2013</v>
       </c>
       <c r="E25">
-        <v>2.056299233127379</v>
+        <v>2.056299233127357</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,7 +831,7 @@
         <v>2013</v>
       </c>
       <c r="C26">
-        <v>-0.21382081602489</v>
+        <v>-0.2005234417569279</v>
       </c>
       <c r="D26">
         <v>2014</v>
@@ -848,7 +848,7 @@
         <v>2014</v>
       </c>
       <c r="C27">
-        <v>2.703038888817888</v>
+        <v>2.233381469093354</v>
       </c>
       <c r="D27">
         <v>2015</v>
@@ -865,13 +865,13 @@
         <v>2015</v>
       </c>
       <c r="C28">
-        <v>1.221982741572325</v>
+        <v>1.312922983354992</v>
       </c>
       <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28">
-        <v>1.093658812337583</v>
+        <v>1.093658812337606</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,7 +882,7 @@
         <v>2016</v>
       </c>
       <c r="C29">
-        <v>2.120249189810353</v>
+        <v>1.785401661837871</v>
       </c>
       <c r="D29">
         <v>2017</v>
@@ -899,7 +899,7 @@
         <v>2017</v>
       </c>
       <c r="C30">
-        <v>2.043020013918806</v>
+        <v>1.875259646256233</v>
       </c>
       <c r="D30">
         <v>2018</v>
@@ -916,13 +916,13 @@
         <v>2018</v>
       </c>
       <c r="C31">
-        <v>1.732765887893239</v>
+        <v>2.159588720360284</v>
       </c>
       <c r="D31">
         <v>2019</v>
       </c>
       <c r="E31">
-        <v>1.194436089410544</v>
+        <v>1.194436089410567</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,7 +933,7 @@
         <v>2019</v>
       </c>
       <c r="C32">
-        <v>1.091657448782768</v>
+        <v>0.8260652760268661</v>
       </c>
       <c r="D32">
         <v>2020</v>
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-5.439093160905695</v>
+        <v>-3.195510012625546</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-8.595406358054724</v>
+        <v>-8.595406358054735</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>2021</v>
       </c>
       <c r="C34">
-        <v>-2.562843444346952</v>
+        <v>-1.620339334086651</v>
       </c>
       <c r="D34">
         <v>2022</v>
       </c>
       <c r="E34">
-        <v>-7.034199224108995</v>
+        <v>-7.034199224108983</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2022</v>
       </c>
       <c r="C35">
-        <v>1.695914144558275</v>
+        <v>1.905757520223461</v>
       </c>
       <c r="D35">
         <v>2023</v>
       </c>
       <c r="E35">
-        <v>0.9449497347025382</v>
+        <v>0.9449497347025604</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2023</v>
       </c>
       <c r="C36">
-        <v>-1.031098731795621</v>
+        <v>-0.492451289919571</v>
       </c>
       <c r="D36">
         <v>2024</v>
       </c>
       <c r="E36">
-        <v>-1.334179412476999</v>
+        <v>-1.334179412476988</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,7 +1018,7 @@
         <v>2024</v>
       </c>
       <c r="C37">
-        <v>0.2094135779914019</v>
+        <v>-0.0458093613100008</v>
       </c>
       <c r="D37">
         <v>2025</v>
@@ -1035,13 +1035,13 @@
         <v>2025</v>
       </c>
       <c r="C38">
-        <v>0.8596336419319561</v>
+        <v>0.4077310087939434</v>
       </c>
       <c r="D38">
         <v>2026</v>
       </c>
       <c r="E38">
-        <v>1.656917693245807</v>
+        <v>1.656917693245785</v>
       </c>
     </row>
   </sheetData>
